--- a/data/trans_dic/P36$nada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,19</t>
+          <t>0,99; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,55</t>
+          <t>1,16; 3,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,39</t>
+          <t>1,68; 4,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,65</t>
+          <t>0,68; 2,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,95</t>
+          <t>0,31; 1,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,44</t>
+          <t>0,65; 2,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,35</t>
+          <t>1,07; 2,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,26</t>
+          <t>0,95; 2,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,98</t>
+          <t>1,29; 2,99</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,09</t>
+          <t>1,21; 3,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,55</t>
+          <t>1,38; 3,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,94</t>
+          <t>1,12; 2,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,72</t>
+          <t>0,86; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,55</t>
+          <t>0,87; 2,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,01</t>
+          <t>0,64; 2,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,5</t>
+          <t>1,23; 2,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,64</t>
+          <t>1,37; 2,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,15</t>
+          <t>0,99; 2,14</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,81</t>
+          <t>1,28; 3,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,08</t>
+          <t>1,55; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,88</t>
+          <t>0,84; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,97</t>
+          <t>0,83; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,8</t>
+          <t>1,36; 3,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,7</t>
+          <t>0,38; 1,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,82</t>
+          <t>1,26; 2,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,37</t>
+          <t>1,71; 3,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,93</t>
+          <t>0,72; 1,97</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,12</t>
+          <t>1,37; 3,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,09</t>
+          <t>2,32; 5,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,6</t>
+          <t>0,88; 2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,7</t>
+          <t>1,02; 2,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,97</t>
+          <t>1,25; 3,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,38</t>
+          <t>0,33; 1,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,57</t>
+          <t>1,38; 2,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,57</t>
+          <t>1,96; 3,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,7</t>
+          <t>0,75; 1,71</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,6</t>
+          <t>1,64; 2,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,28</t>
+          <t>2,09; 3,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,44</t>
+          <t>1,46; 2,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,14</t>
+          <t>1,19; 2,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,23</t>
+          <t>1,32; 2,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,38</t>
+          <t>0,72; 1,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,17</t>
+          <t>1,52; 2,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,57</t>
+          <t>1,82; 2,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,74</t>
+          <t>1,17; 1,81</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no desayuna</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12622</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18592</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6349</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8645</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22322</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27237</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6869; 21823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8170; 25406</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11276; 29668</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4684; 16570</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2186; 12658</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4391; 16462</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14751; 33249</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13211; 32969</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17287; 40231</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19325</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23268</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18774</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14931</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15688</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12155</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34256</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38956</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30929</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11558; 28967</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14038; 37030</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11439; 29544</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8289; 24486</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8931; 27087</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6703; 21721</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23744; 46293</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28057; 56256</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20394; 44166</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15973</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18819</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11867</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11171</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18374</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6950</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27144</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37193</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8646; 25790</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11689; 30492</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6403; 21735</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5653; 19781</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10526; 28325</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2965; 14093</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17145; 39298</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26238; 51188</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11083; 30478</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19621</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32707</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15146</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17748</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20958</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7481</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37370</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53664</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22627</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12840; 29612</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21900; 48997</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8248; 23116</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10589; 28220</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13105; 32251</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3449; 15590</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27194; 51806</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39168; 69298</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14761; 33828</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88935</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>64378</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>61369</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35232</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>121092</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>150304</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99610</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>53617; 86118</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71506; 111914</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49617; 83495</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40235; 68593</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46793; 80458</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25658; 49321</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100811; 146599</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>126625; 179043</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>80945; 125550</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>